--- a/source/wishlist.xlsx
+++ b/source/wishlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5351de14e4a67c9/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="180" documentId="8_{BF7D4C8A-3F88-4949-9812-30723F6A333B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{031E8B2E-AC12-42DF-893D-6D0677E2195A}"/>
+  <xr:revisionPtr revIDLastSave="187" documentId="8_{BF7D4C8A-3F88-4949-9812-30723F6A333B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{087D6289-8DEC-45B0-89E3-59EF20DF3ED0}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19395" windowHeight="23280" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="96">
   <si>
     <t>Image</t>
   </si>
@@ -321,6 +321,9 @@
   </si>
   <si>
     <t>Play-Doh Large Dough set</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -705,7 +708,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,7 +944,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -955,7 +958,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>58</v>
       </c>
@@ -969,7 +972,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -983,7 +986,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -996,8 +999,11 @@
       <c r="D20" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -1010,8 +1016,11 @@
       <c r="D21" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -1024,8 +1033,11 @@
       <c r="D22" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -1038,8 +1050,11 @@
       <c r="D23" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -1051,6 +1066,9 @@
       </c>
       <c r="D24" t="s">
         <v>71</v>
+      </c>
+      <c r="E24" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/source/wishlist.xlsx
+++ b/source/wishlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5351de14e4a67c9/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="187" documentId="8_{BF7D4C8A-3F88-4949-9812-30723F6A333B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{087D6289-8DEC-45B0-89E3-59EF20DF3ED0}"/>
+  <xr:revisionPtr revIDLastSave="190" documentId="8_{BF7D4C8A-3F88-4949-9812-30723F6A333B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FF330FC-4954-4B9C-8669-03DC5010BC8F}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19395" windowHeight="23280" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="96">
   <si>
     <t>Image</t>
   </si>
@@ -708,7 +708,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,6 +761,9 @@
       <c r="D3" t="s">
         <v>85</v>
       </c>
+      <c r="E3" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -951,11 +954,14 @@
       <c r="B17" t="s">
         <v>46</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>88</v>
+      </c>
+      <c r="E17" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1096,8 +1102,9 @@
     <hyperlink ref="C3" r:id="rId18" xr:uid="{07B14049-D6B4-4F6A-817E-C87EA5232BB4}"/>
     <hyperlink ref="C10" r:id="rId19" xr:uid="{FFE1D2D9-E4EE-4E82-9DA1-021D332E2D6D}"/>
     <hyperlink ref="C12" r:id="rId20" xr:uid="{CCAF8718-CFD1-4C0F-B1A2-C1F062136E70}"/>
+    <hyperlink ref="C17" r:id="rId21" xr:uid="{79066398-C3FC-402A-9767-1D8B07E707D3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
--- a/source/wishlist.xlsx
+++ b/source/wishlist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5351de14e4a67c9/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\storage\OneDrive\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="190" documentId="8_{BF7D4C8A-3F88-4949-9812-30723F6A333B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FF330FC-4954-4B9C-8669-03DC5010BC8F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DA1030-8455-469F-B16E-3C80CA50A313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19395" windowHeight="23280" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="43200" windowHeight="17145" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Clara" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="96">
   <si>
     <t>Image</t>
   </si>
@@ -402,10 +402,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -708,7 +704,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,6 +928,9 @@
       <c r="D15" t="s">
         <v>77</v>
       </c>
+      <c r="E15" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -945,6 +944,9 @@
       </c>
       <c r="D16" t="s">
         <v>92</v>
+      </c>
+      <c r="E16" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
